--- a/assignments/ass1/logs/runtime.xlsx
+++ b/assignments/ass1/logs/runtime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murf\University\Courses\Spring-2024\CSC477\assignments\ass1\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DB391D-0944-4CC8-BF3F-D67B8BE887FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4D6331-38B7-4478-9572-CAEAF7EA7986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Runtime" sheetId="1" r:id="rId1"/>
@@ -198,8 +198,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{029A658B-44A2-4060-AD7C-A33644535C25}" name="Table1" displayName="Table1" ref="A1:T11" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:T11" xr:uid="{029A658B-44A2-4060-AD7C-A33644535C25}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{029A658B-44A2-4060-AD7C-A33644535C25}" name="Table1" displayName="Table1" ref="A1:T10" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:T10" xr:uid="{029A658B-44A2-4060-AD7C-A33644535C25}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{449F01C1-6FF2-4FBB-817F-7AD2B0DB86E1}" name="Nb files \ Method to compress" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{0D531BE6-D235-4737-81A0-3E8922FF0F83}" name="Sequential" dataDxfId="16"/>
@@ -489,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,22 +570,54 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="B2" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1.4</v>
+      </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -594,22 +626,54 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1.2</v>
+      </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -618,22 +682,54 @@
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="B4" s="1">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1.2</v>
+      </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -642,22 +738,54 @@
       <c r="A5" s="1">
         <v>8</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="B5" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1.4</v>
+      </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -666,22 +794,54 @@
       <c r="A6" s="1">
         <v>16</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="B6" s="1">
+        <v>23.2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>3</v>
+      </c>
+      <c r="O6" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="P6" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1.8</v>
+      </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -690,70 +850,168 @@
       <c r="A7" s="1">
         <v>32</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="B7" s="1">
+        <v>54.4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1">
+        <v>17.2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G7" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="J7" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="L7" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="O7" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P7" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>4.4000000000000004</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>64</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="B8" s="1">
+        <v>89</v>
+      </c>
+      <c r="C8" s="1">
+        <v>36.6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>32.4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F8" s="1">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>13.8</v>
+      </c>
+      <c r="H8" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="I8" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="J8" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="K8" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="L8" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M8" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N8" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="O8" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="P8" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>128</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="B9" s="1">
+        <v>178.6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>103.8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>52.4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1">
+        <v>35.4</v>
+      </c>
+      <c r="G9" s="1">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H9" s="1">
+        <v>35</v>
+      </c>
+      <c r="I9" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="K9" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>34.6</v>
+      </c>
+      <c r="M9" s="1">
+        <v>23.6</v>
+      </c>
+      <c r="N9" s="1">
+        <v>27.8</v>
+      </c>
+      <c r="O9" s="1">
+        <v>29.6</v>
+      </c>
+      <c r="P9" s="1">
+        <v>23.8</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>22.4</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>256</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1">
+        <v>359.2</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -771,9 +1029,7 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>512</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -791,25 +1047,6 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/assignments/ass1/logs/runtime.xlsx
+++ b/assignments/ass1/logs/runtime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murf\University\Courses\Spring-2024\CSC477\assignments\ass1\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4D6331-38B7-4478-9572-CAEAF7EA7986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868E3012-88E6-4462-8828-07F00A54410C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Runtime" sheetId="1" r:id="rId1"/>
@@ -198,26 +198,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{029A658B-44A2-4060-AD7C-A33644535C25}" name="Table1" displayName="Table1" ref="A1:T10" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{029A658B-44A2-4060-AD7C-A33644535C25}" name="Table1" displayName="Table1" ref="A1:T10" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="A1:T10" xr:uid="{029A658B-44A2-4060-AD7C-A33644535C25}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{449F01C1-6FF2-4FBB-817F-7AD2B0DB86E1}" name="Nb files \ Method to compress" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{0D531BE6-D235-4737-81A0-3E8922FF0F83}" name="Sequential" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{33C41CD5-A076-455F-840C-945106B73ABC}" name="2 Cores" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{8E0DE05C-1C3E-4CC9-BD13-960FDE3ACFBE}" name="3 Cores" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{826D3500-5C1A-48E7-B3F9-0242A22E72AB}" name="4 Cores" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{3B6916F0-A714-4A7B-91D9-8CEA07B65F5B}" name="5 Cores" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{58F02A79-11AA-4B85-BAA5-B6AEF685BCD1}" name="6 Cores" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{5FC6FA54-254E-4CF4-B70F-9E1B64AFB42E}" name="7 Cores" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{43D222F0-AEC8-4731-9DF0-65B9B3417FE1}" name="8 Cores" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{41F73AA7-B24B-44FE-AFAB-3FB36DC35701}" name="9 Cores" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{5B89AC99-42DF-429D-AE78-D1A99B4E5480}" name="10 Cores" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{DD1E9A1F-61CC-4C1F-BDCA-63D59F507E0D}" name="11 Cores" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{EB40CEF8-C4C8-44D9-AF8F-EDA84077A219}" name="12 Cores" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{48482D0D-D6FC-4D69-A0B8-D20377159BEC}" name="13 Cores" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{6B178036-B57D-4031-9FF3-AD275828EA35}" name="14 Cores" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{D65C23AF-930B-4132-B139-EA4220009B44}" name="15 Cores" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{A5A3E5A1-8149-465D-885C-FFF91AFA8442}" name="16 Cores" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{449F01C1-6FF2-4FBB-817F-7AD2B0DB86E1}" name="Nb files \ Method to compress" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{0D531BE6-D235-4737-81A0-3E8922FF0F83}" name="Sequential" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{33C41CD5-A076-455F-840C-945106B73ABC}" name="2 Cores" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{8E0DE05C-1C3E-4CC9-BD13-960FDE3ACFBE}" name="3 Cores" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{826D3500-5C1A-48E7-B3F9-0242A22E72AB}" name="4 Cores" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{3B6916F0-A714-4A7B-91D9-8CEA07B65F5B}" name="5 Cores" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{58F02A79-11AA-4B85-BAA5-B6AEF685BCD1}" name="6 Cores" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{5FC6FA54-254E-4CF4-B70F-9E1B64AFB42E}" name="7 Cores" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{43D222F0-AEC8-4731-9DF0-65B9B3417FE1}" name="8 Cores" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{41F73AA7-B24B-44FE-AFAB-3FB36DC35701}" name="9 Cores" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{5B89AC99-42DF-429D-AE78-D1A99B4E5480}" name="10 Cores" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{DD1E9A1F-61CC-4C1F-BDCA-63D59F507E0D}" name="11 Cores" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{EB40CEF8-C4C8-44D9-AF8F-EDA84077A219}" name="12 Cores" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{48482D0D-D6FC-4D69-A0B8-D20377159BEC}" name="13 Cores" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{6B178036-B57D-4031-9FF3-AD275828EA35}" name="14 Cores" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{D65C23AF-930B-4132-B139-EA4220009B44}" name="15 Cores" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{A5A3E5A1-8149-465D-885C-FFF91AFA8442}" name="16 Cores" dataDxfId="0"/>
     <tableColumn id="18" xr3:uid="{7F029BAE-8109-4778-B5F9-472C62E2B951}" name="Method1"/>
     <tableColumn id="19" xr3:uid="{D133B9A1-C7FC-4AE1-B9FA-6D0B045D41BC}" name="Method2"/>
     <tableColumn id="20" xr3:uid="{40C6D24A-E943-4779-8953-1FBE84ACA357}" name="Method3"/>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,9 +618,15 @@
       <c r="Q2" s="1">
         <v>1.4</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="R2" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1012,21 +1018,51 @@
       <c r="B10" s="1">
         <v>359.2</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="C10" s="1">
+        <v>232.5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>170.5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>151</v>
+      </c>
+      <c r="F10" s="1">
+        <v>123.5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>110</v>
+      </c>
+      <c r="H10" s="1">
+        <v>103</v>
+      </c>
+      <c r="I10" s="1">
+        <v>87</v>
+      </c>
+      <c r="J10" s="1">
+        <v>87</v>
+      </c>
+      <c r="K10" s="1">
+        <v>79</v>
+      </c>
+      <c r="L10" s="1">
+        <v>74</v>
+      </c>
+      <c r="M10" s="1">
+        <v>82.5</v>
+      </c>
+      <c r="N10" s="1">
+        <v>71</v>
+      </c>
+      <c r="O10" s="1">
+        <v>72</v>
+      </c>
+      <c r="P10" s="1">
+        <v>79</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>68</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>

--- a/assignments/ass1/logs/runtime.xlsx
+++ b/assignments/ass1/logs/runtime.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murf\University\Courses\Spring-2024\CSC477\assignments\ass1\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868E3012-88E6-4462-8828-07F00A54410C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E393BC-EC5F-4CCB-B9B1-4A6329FDCFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Runtime" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Nb files \ Method to compress</t>
   </si>
@@ -85,6 +96,9 @@
   </si>
   <si>
     <t>Method3</t>
+  </si>
+  <si>
+    <t>------------------</t>
   </si>
 </sst>
 </file>
@@ -120,16 +134,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="23">
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -198,29 +237,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{029A658B-44A2-4060-AD7C-A33644535C25}" name="Table1" displayName="Table1" ref="A1:T10" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="A1:T10" xr:uid="{029A658B-44A2-4060-AD7C-A33644535C25}"/>
-  <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{449F01C1-6FF2-4FBB-817F-7AD2B0DB86E1}" name="Nb files \ Method to compress" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{0D531BE6-D235-4737-81A0-3E8922FF0F83}" name="Sequential" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{33C41CD5-A076-455F-840C-945106B73ABC}" name="2 Cores" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{8E0DE05C-1C3E-4CC9-BD13-960FDE3ACFBE}" name="3 Cores" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{826D3500-5C1A-48E7-B3F9-0242A22E72AB}" name="4 Cores" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{3B6916F0-A714-4A7B-91D9-8CEA07B65F5B}" name="5 Cores" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{58F02A79-11AA-4B85-BAA5-B6AEF685BCD1}" name="6 Cores" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{5FC6FA54-254E-4CF4-B70F-9E1B64AFB42E}" name="7 Cores" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{43D222F0-AEC8-4731-9DF0-65B9B3417FE1}" name="8 Cores" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{41F73AA7-B24B-44FE-AFAB-3FB36DC35701}" name="9 Cores" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{5B89AC99-42DF-429D-AE78-D1A99B4E5480}" name="10 Cores" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{DD1E9A1F-61CC-4C1F-BDCA-63D59F507E0D}" name="11 Cores" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{EB40CEF8-C4C8-44D9-AF8F-EDA84077A219}" name="12 Cores" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{48482D0D-D6FC-4D69-A0B8-D20377159BEC}" name="13 Cores" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{6B178036-B57D-4031-9FF3-AD275828EA35}" name="14 Cores" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{D65C23AF-930B-4132-B139-EA4220009B44}" name="15 Cores" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{A5A3E5A1-8149-465D-885C-FFF91AFA8442}" name="16 Cores" dataDxfId="0"/>
-    <tableColumn id="18" xr3:uid="{7F029BAE-8109-4778-B5F9-472C62E2B951}" name="Method1"/>
-    <tableColumn id="19" xr3:uid="{D133B9A1-C7FC-4AE1-B9FA-6D0B045D41BC}" name="Method2"/>
-    <tableColumn id="20" xr3:uid="{40C6D24A-E943-4779-8953-1FBE84ACA357}" name="Method3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{029A658B-44A2-4060-AD7C-A33644535C25}" name="Table1" displayName="Table1" ref="A1:U10" totalsRowShown="0" headerRowDxfId="22" dataDxfId="0">
+  <autoFilter ref="A1:U10" xr:uid="{029A658B-44A2-4060-AD7C-A33644535C25}"/>
+  <tableColumns count="21">
+    <tableColumn id="1" xr3:uid="{449F01C1-6FF2-4FBB-817F-7AD2B0DB86E1}" name="Nb files \ Method to compress" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{0D531BE6-D235-4737-81A0-3E8922FF0F83}" name="Sequential" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{33C41CD5-A076-455F-840C-945106B73ABC}" name="2 Cores" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{8E0DE05C-1C3E-4CC9-BD13-960FDE3ACFBE}" name="3 Cores" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{826D3500-5C1A-48E7-B3F9-0242A22E72AB}" name="4 Cores" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{3B6916F0-A714-4A7B-91D9-8CEA07B65F5B}" name="5 Cores" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{58F02A79-11AA-4B85-BAA5-B6AEF685BCD1}" name="6 Cores" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{5FC6FA54-254E-4CF4-B70F-9E1B64AFB42E}" name="7 Cores" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{43D222F0-AEC8-4731-9DF0-65B9B3417FE1}" name="8 Cores" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{41F73AA7-B24B-44FE-AFAB-3FB36DC35701}" name="9 Cores" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{5B89AC99-42DF-429D-AE78-D1A99B4E5480}" name="10 Cores" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{DD1E9A1F-61CC-4C1F-BDCA-63D59F507E0D}" name="11 Cores" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{EB40CEF8-C4C8-44D9-AF8F-EDA84077A219}" name="12 Cores" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{48482D0D-D6FC-4D69-A0B8-D20377159BEC}" name="13 Cores" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{6B178036-B57D-4031-9FF3-AD275828EA35}" name="14 Cores" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{D65C23AF-930B-4132-B139-EA4220009B44}" name="15 Cores" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{A5A3E5A1-8149-465D-885C-FFF91AFA8442}" name="16 Cores" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{7F029BAE-8109-4778-B5F9-472C62E2B951}" name="------------------" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{D133B9A1-C7FC-4AE1-B9FA-6D0B045D41BC}" name="Method1" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{40C6D24A-E943-4779-8953-1FBE84ACA357}" name="Method2" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{240E5D80-95B1-49C0-8658-DACAB9A2DE45}" name="Method3" dataDxfId="1">
+      <calculatedColumnFormula>Table1[[#This Row],[16 Cores]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -489,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +546,7 @@
     <col min="18" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,17 +598,20 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -618,17 +663,21 @@
       <c r="Q2" s="1">
         <v>1.4</v>
       </c>
-      <c r="R2" s="1">
-        <v>1.4</v>
+      <c r="R2" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="S2" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="T2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="T2" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="U2" s="2">
+        <f>Table1[[#This Row],[16 Cores]]</f>
         <v>1.4</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -680,11 +729,21 @@
       <c r="Q3" s="1">
         <v>1.2</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
+      <c r="R3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="T3" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="U3" s="2">
+        <f>Table1[[#This Row],[16 Cores]]</f>
+        <v>1.2</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -736,11 +795,21 @@
       <c r="Q4" s="1">
         <v>1.2</v>
       </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
+      <c r="R4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="T4" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="U4" s="2">
+        <f>Table1[[#This Row],[16 Cores]]</f>
+        <v>1.2</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -792,11 +861,21 @@
       <c r="Q5" s="1">
         <v>1.4</v>
       </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
+      <c r="R5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="U5" s="2">
+        <f>Table1[[#This Row],[16 Cores]]</f>
+        <v>1.4</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>16</v>
       </c>
@@ -846,13 +925,23 @@
         <v>3.4</v>
       </c>
       <c r="Q6" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="U6" s="2">
+        <f>Table1[[#This Row],[16 Cores]]</f>
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>32</v>
       </c>
@@ -902,10 +991,23 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="Q7" s="1">
-        <v>4.4000000000000004</v>
+        <v>2.5</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="1">
+        <v>3</v>
+      </c>
+      <c r="T7" s="3">
+        <v>3</v>
+      </c>
+      <c r="U7" s="2">
+        <f>Table1[[#This Row],[16 Cores]]</f>
+        <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>64</v>
       </c>
@@ -955,10 +1057,23 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="Q8" s="1">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="1">
+        <v>6</v>
+      </c>
+      <c r="T8" s="3">
+        <v>6</v>
+      </c>
+      <c r="U8" s="2">
+        <f>Table1[[#This Row],[16 Cores]]</f>
+        <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>128</v>
       </c>
@@ -1008,10 +1123,23 @@
         <v>23.8</v>
       </c>
       <c r="Q9" s="1">
-        <v>22.4</v>
+        <v>18.5</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="1">
+        <v>19</v>
+      </c>
+      <c r="T9" s="3">
+        <v>19.5</v>
+      </c>
+      <c r="U9" s="2">
+        <f>Table1[[#This Row],[16 Cores]]</f>
+        <v>18.5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>256</v>
       </c>
@@ -1063,8 +1191,21 @@
       <c r="Q10" s="1">
         <v>68</v>
       </c>
+      <c r="R10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="1">
+        <v>77</v>
+      </c>
+      <c r="T10" s="3">
+        <v>73</v>
+      </c>
+      <c r="U10" s="2">
+        <f>Table1[[#This Row],[16 Cores]]</f>
+        <v>68</v>
+      </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
